--- a/test/表格1.xlsx
+++ b/test/表格1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23240\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA95CD41-97C9-40CC-AB73-D23E9C68B506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853D2A3F-3C8F-41A2-B59C-7DD0AE555FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{3A096F8F-14F9-45BC-A97E-3036AD10B172}"/>
+    <workbookView xWindow="14190" yWindow="3960" windowWidth="14400" windowHeight="8250" xr2:uid="{3A096F8F-14F9-45BC-A97E-3036AD10B172}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,13 +421,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F0153F-9331-446E-A8D7-809343123438}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.53125" customWidth="1"/>
+    <col min="2" max="2" width="16.265625" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -571,6 +576,29 @@
       </c>
       <c r="E8" s="1">
         <v>12730</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>20001000</v>
+      </c>
+      <c r="B9" s="1">
+        <f>100000*997+6231</f>
+        <v>99706231</v>
+      </c>
+      <c r="D9" s="1">
+        <v>90758846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>200001000</v>
+      </c>
+      <c r="B10" s="1">
+        <v>997006231</v>
+      </c>
+      <c r="D10" s="1">
+        <v>372222451</v>
       </c>
     </row>
   </sheetData>
